--- a/cf_entregable/visualizacion.xlsx
+++ b/cf_entregable/visualizacion.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\guard\Documents\GitHub\html\cf_entregable\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C6DC614-150F-433B-ACC8-A9543038DE21}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26D17D80-9ACC-40F8-8594-C1BFD96E60DC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-118" yWindow="-118" windowWidth="21181" windowHeight="11402" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,14 +25,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="15">
   <si>
     <t>segmento</t>
   </si>
   <si>
-    <t>visualizacion</t>
-  </si>
-  <si>
     <t>url</t>
   </si>
   <si>
@@ -42,7 +39,37 @@
     <t>3d</t>
   </si>
   <si>
-    <t>http://projector.tensorflow.org/?config=https://gist.githubusercontent.com/DavidIngx/883460f57227a9a594e2b26c27aa8b8d/raw/7aefc5b9f04d0c9672f0b1c8d45a4f15d47f77e1/data_cf</t>
+    <t>grafo</t>
+  </si>
+  <si>
+    <t>https://projector.tensorflow.org/?config=https://gist.githubusercontent.com/DavidIngx/883460f57227a9a594e2b26c27aa8b8d/raw/d8485bebe2b0c6894bc482ced64d1723550c795e/data_cf</t>
+  </si>
+  <si>
+    <t>https://htmlpreview.github.io/?</t>
+  </si>
+  <si>
+    <t>https://htmlpreview.github.io/?https://raw.githubusercontent.com/DavidIngx/html/master/cf_entregable/afiliaciones_palabras_agente_.html</t>
+  </si>
+  <si>
+    <t>agente_experiencia_emitida</t>
+  </si>
+  <si>
+    <t>sentimientos_usuarios</t>
+  </si>
+  <si>
+    <t>https://htmlpreview.github.io/?https://raw.githubusercontent.com/DavidIngx/html/master/cf_entregable/afiliaciones_experiencia_general.html</t>
+  </si>
+  <si>
+    <t>palabras_clave</t>
+  </si>
+  <si>
+    <t>2d topics</t>
+  </si>
+  <si>
+    <t>https://htmlpreview.github.io/?https://raw.githubusercontent.com/DavidIngx/html/master/cf_entregable/afiliaciones_vis_AFILIACIONES.html</t>
+  </si>
+  <si>
+    <t>n_gramas</t>
   </si>
 </sst>
 </file>
@@ -371,14 +398,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="A5:B5"/>
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="15.05" x14ac:dyDescent="0.3"/>
   <cols>
+    <col min="1" max="1" width="9.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.77734375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="150.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -387,26 +416,82 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" t="s">
         <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" t="s">
         <v>3</v>
-      </c>
-      <c r="B2" t="s">
-        <v>4</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>2</v>
+      </c>
+      <c r="B6" t="s">
+        <v>12</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>2</v>
+      </c>
+      <c r="B7" t="s">
+        <v>14</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="C2" r:id="rId1" xr:uid="{AADF43E1-98A6-4898-B3B8-62AA10BE31FD}"/>
+    <hyperlink ref="C3" r:id="rId2" xr:uid="{9A85F96C-881B-4811-A44D-E638E7BCF73E}"/>
+    <hyperlink ref="C4" r:id="rId3" xr:uid="{2B9A740F-5715-46EF-B4A8-6ED234CB47A8}"/>
+    <hyperlink ref="C5" r:id="rId4" xr:uid="{3747812F-84A0-40AA-9D57-F46614C28A6F}"/>
+    <hyperlink ref="C6" r:id="rId5" xr:uid="{2EF2B09E-9526-48AD-BC5E-3DE28CEED9D1}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
